--- a/transposed.xlsx
+++ b/transposed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aibra_000\Documents\MAIN\Gitfiles\rtdsp-lab4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\repos\rtdsp-lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,32 +24,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
-  <si>
-    <t>Optimison</t>
-  </si>
-  <si>
-    <t>Cycles</t>
-  </si>
-  <si>
-    <t>Spicy</t>
-  </si>
-  <si>
-    <t>Direct form 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Direct form 2 transposed</t>
   </si>
   <si>
-    <t xml:space="preserve">Optimsation </t>
+    <t>Direct Form 2</t>
+  </si>
+  <si>
+    <t>No optimisation</t>
+  </si>
+  <si>
+    <t>Optimisation 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -77,8 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,6 +100,2293 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Direct Form 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No optimisation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimisation 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="468265264"/>
+        <c:axId val="464157584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="468265264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464157584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="464157584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468265264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Direct Form 2 Transposed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No optimisation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$8:$W$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$9:$W$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>746</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Optimisation 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$8:$W$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$10:$W$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="471188848"/>
+        <c:axId val="471593112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="471188848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471593112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="471593112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="471188848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1152524</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,74 +2652,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:I5"/>
+  <dimension ref="B7:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>12</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="1">
+        <v>4</v>
+      </c>
+      <c r="T8" s="1">
+        <v>6</v>
+      </c>
+      <c r="U8" s="1">
+        <v>8</v>
+      </c>
+      <c r="V8" s="1">
+        <v>10</v>
+      </c>
+      <c r="W8" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>334</v>
+      </c>
+      <c r="D9">
+        <v>486</v>
+      </c>
+      <c r="E9">
+        <v>638</v>
+      </c>
+      <c r="F9">
+        <v>790</v>
+      </c>
+      <c r="G9">
+        <v>942</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>274</v>
+      </c>
+      <c r="T9">
+        <v>392</v>
+      </c>
+      <c r="U9">
+        <v>510</v>
+      </c>
+      <c r="V9">
+        <v>628</v>
+      </c>
+      <c r="W9">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>334</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>274</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>149</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
+      <c r="C10">
+        <v>129</v>
+      </c>
+      <c r="D10">
+        <v>138</v>
+      </c>
+      <c r="E10">
+        <v>152</v>
+      </c>
+      <c r="F10">
+        <v>166</v>
+      </c>
+      <c r="G10">
+        <v>180</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10">
         <v>142</v>
+      </c>
+      <c r="T10">
+        <v>152</v>
+      </c>
+      <c r="U10">
+        <v>167</v>
+      </c>
+      <c r="V10">
+        <v>177</v>
+      </c>
+      <c r="W10">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/transposed.xlsx
+++ b/transposed.xlsx
@@ -175,8 +175,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -193,10 +193,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -275,7 +273,57 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13253453130019086"/>
+                  <c:y val="2.1785908562560463E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$8:$G$8</c:f>
               <c:numCache>
@@ -298,8 +346,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$C$9:$G$9</c:f>
               <c:numCache>
@@ -322,7 +370,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -340,10 +388,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -422,7 +468,57 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12934378934747404"/>
+                  <c:y val="-0.1563186192184296"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$8:$G$8</c:f>
               <c:numCache>
@@ -445,8 +541,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$C$10:$G$10</c:f>
               <c:numCache>
@@ -469,7 +565,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -481,13 +577,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="468265264"/>
+        <c:axId val="559263960"/>
         <c:axId val="464157584"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="468265264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="559263960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -532,11 +626,8 @@
         </c:txPr>
         <c:crossAx val="464157584"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="464157584"/>
         <c:scaling>
@@ -589,9 +680,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468265264"/>
+        <c:crossAx val="559263960"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -603,6 +694,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -743,8 +842,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -761,10 +860,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -843,7 +940,57 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11660799710192127"/>
+                  <c:y val="5.3021693544938228E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$S$8:$W$8</c:f>
               <c:numCache>
@@ -866,8 +1013,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$S$9:$W$9</c:f>
               <c:numCache>
@@ -890,7 +1037,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -908,10 +1055,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -990,7 +1135,57 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12862984913386472"/>
+                  <c:y val="-0.11715376596098205"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$S$8:$W$8</c:f>
               <c:numCache>
@@ -1013,8 +1208,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$S$10:$W$10</c:f>
               <c:numCache>
@@ -1037,7 +1232,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -1049,13 +1244,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="471188848"/>
+        <c:axId val="467750832"/>
         <c:axId val="471593112"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="471188848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="467750832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,11 +1293,8 @@
         </c:txPr>
         <c:crossAx val="471593112"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="471593112"/>
         <c:scaling>
@@ -1157,9 +1347,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471188848"/>
+        <c:crossAx val="467750832"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1171,6 +1361,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2654,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/transposed.xlsx
+++ b/transposed.xlsx
@@ -587,6 +587,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Filter Order</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -649,6 +705,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Cycles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1254,6 +1366,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Filter Order</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1316,6 +1484,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number Of Cycles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2852,8 +3076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/transposed.xlsx
+++ b/transposed.xlsx
@@ -3076,8 +3076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/transposed.xlsx
+++ b/transposed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\repos\rtdsp-lab5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mir-TahmasebiMattin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -577,11 +577,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="559263960"/>
-        <c:axId val="464157584"/>
+        <c:axId val="126683496"/>
+        <c:axId val="126684280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="559263960"/>
+        <c:axId val="126683496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -680,12 +680,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464157584"/>
+        <c:crossAx val="126684280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="464157584"/>
+        <c:axId val="126684280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -792,7 +792,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559263960"/>
+        <c:crossAx val="126683496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1356,11 +1356,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="467750832"/>
-        <c:axId val="471593112"/>
+        <c:axId val="458471472"/>
+        <c:axId val="458467944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="467750832"/>
+        <c:axId val="458471472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,12 +1459,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471593112"/>
+        <c:crossAx val="458467944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471593112"/>
+        <c:axId val="458467944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1571,7 +1571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467750832"/>
+        <c:crossAx val="458471472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2808,6 +2808,92 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543550" y="2409825"/>
+          <a:ext cx="6477000" cy="3028950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>To</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> determine the linear equation that describes the relationship between filter order and number of cycles taken for each algorithm, the algorithms were run at several different order levels, and the time taken, in cycles, was recorded. This process was repeated for no optimisation and optimisation level 2 for both algorithms. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>Using the data collected, the graphs in figure --- and figure --- were produced, showing that there is, indeed, a linear relationship. This is especially true for the non-optimised processes, where the the number of cycles increases by exactly the same amount for each data point (152 for Direct Form 2 and 118 cycles for Direct Form 2 Transposed).  The optimised processes' first two data points are slightly less linear, but from the thirs data point onward, they appear to settle into a linear trend, growing at the same number of cycles(14 cycles for Direct Form 2 and 10 cycles for Direct Form 2 Transposed). More data could not be collected as the filters start to malfunction past the 12th order filter. This is because </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ed fill in why </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3077,7 +3163,7 @@
   <dimension ref="B7:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/transposed.xlsx
+++ b/transposed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mir-TahmasebiMattin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\icnas1.cc.ic.ac.uk\mm5213\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -549,19 +549,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>129</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>138</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>166</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -577,11 +577,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126683496"/>
-        <c:axId val="126684280"/>
+        <c:axId val="382916616"/>
+        <c:axId val="382916224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126683496"/>
+        <c:axId val="382916616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -680,12 +680,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126684280"/>
+        <c:crossAx val="382916224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126684280"/>
+        <c:axId val="382916224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -792,7 +792,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126683496"/>
+        <c:crossAx val="382916616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1328,19 +1328,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>142</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>167</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>177</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1356,11 +1356,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="458471472"/>
-        <c:axId val="458467944"/>
+        <c:axId val="384817528"/>
+        <c:axId val="426581864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="458471472"/>
+        <c:axId val="384817528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,12 +1459,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458467944"/>
+        <c:crossAx val="426581864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="458467944"/>
+        <c:axId val="426581864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1571,7 +1571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458471472"/>
+        <c:crossAx val="384817528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2878,7 +2878,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>Using the data collected, the graphs in figure --- and figure --- were produced, showing that there is, indeed, a linear relationship. This is especially true for the non-optimised processes, where the the number of cycles increases by exactly the same amount for each data point (152 for Direct Form 2 and 118 cycles for Direct Form 2 Transposed).  The optimised processes' first two data points are slightly less linear, but from the thirs data point onward, they appear to settle into a linear trend, growing at the same number of cycles(14 cycles for Direct Form 2 and 10 cycles for Direct Form 2 Transposed). More data could not be collected as the filters start to malfunction past the 12th order filter. This is because </a:t>
+            <a:t>Using the data collected, the graphs in figure --- and figure --- were produced, showing that there is, indeed, a linear relationship. This is especially true for the non-optimised processes, where the the number of cycles increases by exactly the same amount for each data point (152 for Direct Form 2 and 118 cycles for Direct Form 2 Transposed).  The optimised processes' first two data points are slightly less linear, but from the third data point onward, they appear to settle into a linear trend, growing at the same number of cycles(14 cycles for Direct Form 2 and 10 cycles for Direct Form 2 Transposed). More data could not be collected as the filters start to malfunction past the 12th order filter. This is because </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" b="1" baseline="0">
@@ -2886,9 +2886,30 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Ed fill in why </a:t>
+            <a:t>Ed fill in why</a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>The transposed form is seen to be faster than the non-transposed form. Looking at the code, it seems clear that this is due to there being more operations performed </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3162,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" topLeftCell="N4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3265,37 +3286,37 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D10">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E10">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F10">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G10">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="S10">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="T10">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="U10">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="V10">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="W10">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/transposed.xlsx
+++ b/transposed.xlsx
@@ -1334,13 +1334,13 @@
                   <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2818,8 +2818,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2829,7 +2829,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5543550" y="2409825"/>
-          <a:ext cx="6477000" cy="3028950"/>
+          <a:ext cx="6477000" cy="5648325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2903,13 +2903,137 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>The transposed form is seen to be faster than the non-transposed form. Looking at the code, it seems clear that this is due to there being more operations performed </a:t>
+            <a:t>The transposed form is seen to be faster than the non-transposed form. Looking at the non-optimised plots, the transposed for has a much lower x coefficient than the non-transposed form. This means that it will stay consistently faster as order is increased. This is due to the differences in their for loops: in the non-transposed algorithm, we are performing three distinct operations (two multiplications and a shift of the buffer), whereas in the transposed version, we are performing similar operations, but have grouped them into one statement. Since the instructions are not being optimised, the compiler is less efficient at managing its memory with the non-transposed algorithm, since it is not aware that the values it is calculating will be summed at the end. In the transposed algorithm, however, this is more clearly communicated to the compiler.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Looking at the equations for the -o2 plots, there is slightly more overhead in the Direct Form 2 algorithm than the transposed version (109.2 vs 107.8). Looking at the C code, the non-transposed algorithm has more initialisations, which is likely what is contributing to that increase, however, it is diffucult to accurately predict why the optimised code behaves as it does, since the compiler alters the code in non-obvious and sometimes counter-intuitive ways to maximise speed. Looking at the disassembly, as shown in figure ---, in Code Composer (for a 12th order filter), we find that the transposed form makes use of 42 paralell-execution instructions in its for loop, as opposed to the the non-transposed form's 28, which may be a contributing factor, as it reduces the number of cycles needed to run one iteration of the loop.</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100" b="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104264</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5276850" y="8191500"/>
+          <a:ext cx="4085714" cy="2180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5362575" y="10534650"/>
+          <a:ext cx="3924300" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Example of the paralell</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>-execution instructions, preceded by ||</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3183,8 +3307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="F19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3310,13 +3434,13 @@
         <v>138</v>
       </c>
       <c r="U10">
+        <v>150</v>
+      </c>
+      <c r="V10">
         <v>160</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>170</v>
-      </c>
-      <c r="W10">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
